--- a/src/test/resources/dataDriven/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/DataPrueba.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="164">
   <si>
     <t>usar</t>
   </si>
@@ -481,6 +481,42 @@
   </si>
   <si>
     <t>9b72932e-adb8-4dfd-b279-14ecb7ca8c8c</t>
+  </si>
+  <si>
+    <t>788ed933-f2e7-4799-899d-5a643a9cc8fa</t>
+  </si>
+  <si>
+    <t>cb3e86c7-fe3c-4406-83cc-d1a95bf0c0d2</t>
+  </si>
+  <si>
+    <t>97bc14e2-4a64-4b06-b649-47b7c91490b4</t>
+  </si>
+  <si>
+    <t>ca531079-8f67-458b-b46d-a731a16d935f</t>
+  </si>
+  <si>
+    <t>a6ee4641-eb7d-499f-90b3-d71822094c54</t>
+  </si>
+  <si>
+    <t>a81262a7-e7ae-43bf-8001-1472270994fc</t>
+  </si>
+  <si>
+    <t>a6453d15-dc3e-4ab1-9fa9-f19f30a40ecb</t>
+  </si>
+  <si>
+    <t>16d821ff-e2ac-47bf-901b-9404026ff7af</t>
+  </si>
+  <si>
+    <t>30b1f4b2-0d35-4e97-95f8-452bb977dc4c</t>
+  </si>
+  <si>
+    <t>62a49606-d572-4f04-a7b2-cd74857dfe7b</t>
+  </si>
+  <si>
+    <t>4461a8d4-f8ed-4dfa-afe5-451d85bdb495</t>
+  </si>
+  <si>
+    <t>2e59cf15-7819-4596-a0dd-adc5eee15466</t>
   </si>
 </sst>
 </file>
@@ -2260,7 +2296,7 @@
         <v>78</v>
       </c>
       <c r="O2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="P2" t="s">
         <v>79</v>
@@ -2313,7 +2349,7 @@
         <v>80</v>
       </c>
       <c r="O3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="P3" t="s">
         <v>71</v>
@@ -2366,7 +2402,7 @@
         <v>81</v>
       </c>
       <c r="O4" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
         <v>79</v>
@@ -2419,7 +2455,7 @@
         <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="P5" t="s">
         <v>71</v>
